--- a/Civilworks cost/RADP Preparations/Kishoregonj/Projecttion_output_processed.xlsx
+++ b/Civilworks cost/RADP Preparations/Kishoregonj/Projecttion_output_processed.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Website_24_11_2020\cmis6\cmis6\Civilworks cost\RADP Preparations\Kishoregonj\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\website\cmis6\Civilworks cost\RADP Preparations\Kishoregonj\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Structure_Type" sheetId="1" r:id="rId1"/>
@@ -19,13 +19,14 @@
     <sheet name="Package_wise_payment" sheetId="5" r:id="rId5"/>
     <sheet name="Structure_Wise_payment" sheetId="6" r:id="rId6"/>
     <sheet name="DPP_Wise_payment" sheetId="7" r:id="rId7"/>
+    <sheet name="Immediate Start" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1553" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1673" uniqueCount="295">
   <si>
     <t>Items</t>
   </si>
@@ -900,6 +901,18 @@
   </si>
   <si>
     <t xml:space="preserve">Chonati Causeway </t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Contract value</t>
+  </si>
+  <si>
+    <t>STC</t>
   </si>
 </sst>
 </file>
@@ -923,7 +936,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -933,6 +946,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -977,7 +996,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1005,6 +1024,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1315,9 +1339,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1334,7 +1358,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1354,7 +1378,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1374,7 +1398,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1394,7 +1418,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1414,7 +1438,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1434,7 +1458,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1454,7 +1478,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1474,7 +1498,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1494,7 +1518,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1514,7 +1538,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1534,7 +1558,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1554,7 +1578,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1574,7 +1598,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1594,7 +1618,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1614,7 +1638,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1645,9 +1669,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>47</v>
       </c>
@@ -1688,7 +1712,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1732,7 +1756,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1776,7 +1800,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1820,7 +1844,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1864,7 +1888,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1908,7 +1932,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1952,7 +1976,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1996,7 +2020,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2040,7 +2064,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2084,7 +2108,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2128,7 +2152,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2172,7 +2196,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2216,7 +2240,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2260,7 +2284,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2304,7 +2328,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2348,7 +2372,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2392,7 +2416,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2436,7 +2460,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2480,7 +2504,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2524,7 +2548,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2568,7 +2592,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2612,7 +2636,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2656,7 +2680,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2700,7 +2724,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2744,7 +2768,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2788,7 +2812,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2832,7 +2856,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2876,7 +2900,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2920,7 +2944,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2964,7 +2988,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -3008,7 +3032,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -3052,7 +3076,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -3096,7 +3120,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -3140,7 +3164,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -3184,7 +3208,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -3228,7 +3252,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -3272,7 +3296,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -3316,7 +3340,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -3360,7 +3384,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -3404,7 +3428,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -3448,7 +3472,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -3492,7 +3516,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -3536,7 +3560,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -3580,7 +3604,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -3624,7 +3648,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -3668,7 +3692,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -3712,7 +3736,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -3756,7 +3780,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -3800,7 +3824,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -3844,7 +3868,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -3888,7 +3912,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -3932,7 +3956,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -3976,7 +4000,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -4020,7 +4044,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -4064,7 +4088,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -4108,7 +4132,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -4152,7 +4176,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -4196,7 +4220,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -4240,7 +4264,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -4284,7 +4308,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -4328,7 +4352,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -4372,7 +4396,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -4416,7 +4440,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -4460,7 +4484,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -4504,7 +4528,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -4548,7 +4572,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -4592,7 +4616,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -4636,7 +4660,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -4680,7 +4704,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -4724,7 +4748,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -4768,7 +4792,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -4812,7 +4836,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -4856,7 +4880,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -4900,7 +4924,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -4944,7 +4968,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -4988,7 +5012,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -5032,7 +5056,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -5076,7 +5100,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -5120,7 +5144,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -5164,7 +5188,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -5208,7 +5232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -5252,7 +5276,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -5296,7 +5320,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -5340,7 +5364,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -5384,7 +5408,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -5428,7 +5452,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -5472,7 +5496,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -5516,7 +5540,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -5560,7 +5584,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -5604,7 +5628,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -5648,7 +5672,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -5692,7 +5716,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -5736,7 +5760,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -5780,7 +5804,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -5824,7 +5848,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -5868,7 +5892,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -5912,7 +5936,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -5956,7 +5980,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -6000,7 +6024,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -6044,7 +6068,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -6088,7 +6112,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -6132,7 +6156,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -6176,7 +6200,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -6220,7 +6244,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -6264,7 +6288,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -6308,7 +6332,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -6352,7 +6376,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -6396,7 +6420,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -6440,7 +6464,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -6484,7 +6508,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -6528,7 +6552,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -6572,7 +6596,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -6616,7 +6640,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -6660,7 +6684,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -6704,7 +6728,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -6748,7 +6772,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -6792,7 +6816,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -6836,7 +6860,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -6880,7 +6904,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -6924,7 +6948,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -6968,7 +6992,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -7012,7 +7036,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -7056,7 +7080,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -7100,7 +7124,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -7144,7 +7168,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -7188,7 +7212,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -7232,7 +7256,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -7276,7 +7300,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -7320,7 +7344,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -7364,7 +7388,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -7408,7 +7432,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -7452,7 +7476,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -7496,7 +7520,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -7540,7 +7564,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -7584,7 +7608,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -7628,7 +7652,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -7672,7 +7696,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -7716,7 +7740,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -7760,7 +7784,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -7804,7 +7828,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -7848,7 +7872,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -7892,7 +7916,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -7936,7 +7960,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -7980,7 +8004,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -8024,7 +8048,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -8068,7 +8092,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -8123,9 +8147,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>269</v>
       </c>
@@ -8136,7 +8160,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -8150,7 +8174,7 @@
         <v>51.09</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -8164,7 +8188,7 @@
         <v>347.71</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -8178,7 +8202,7 @@
         <v>625.92999999999995</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -8192,7 +8216,7 @@
         <v>714.69</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -8206,7 +8230,7 @@
         <v>575.15</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -8220,7 +8244,7 @@
         <v>837.25</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -8234,7 +8258,7 @@
         <v>565.07000000000005</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -8248,7 +8272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -8262,7 +8286,7 @@
         <v>712.33</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -8276,7 +8300,7 @@
         <v>409.68</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -8290,7 +8314,7 @@
         <v>522.86</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -8304,7 +8328,7 @@
         <v>705.59</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -8318,7 +8342,7 @@
         <v>647.20000000000005</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -8332,7 +8356,7 @@
         <v>806.89</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -8346,7 +8370,7 @@
         <v>333.94</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -8360,7 +8384,7 @@
         <v>721.62</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -8374,7 +8398,7 @@
         <v>1451.95</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -8388,7 +8412,7 @@
         <v>711.02</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -8402,7 +8426,7 @@
         <v>331.35</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -8416,7 +8440,7 @@
         <v>501.12</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -8430,7 +8454,7 @@
         <v>268.24</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -8444,7 +8468,7 @@
         <v>281.05</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -8458,7 +8482,7 @@
         <v>720.33</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -8472,7 +8496,7 @@
         <v>890.42</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -8486,7 +8510,7 @@
         <v>749.37</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -8500,7 +8524,7 @@
         <v>501.12</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -8514,7 +8538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -8528,7 +8552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -8542,7 +8566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -8556,7 +8580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -8570,7 +8594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -8584,7 +8608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -8598,7 +8622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -8612,7 +8636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -8626,7 +8650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -8640,7 +8664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -8654,7 +8678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -8677,25 +8701,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N147"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.33203125" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="70.21875" customWidth="1"/>
-    <col min="5" max="5" width="16.77734375" style="6" customWidth="1"/>
-    <col min="8" max="8" width="9.109375" customWidth="1"/>
-    <col min="9" max="9" width="10.21875" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="13.6640625" customWidth="1"/>
-    <col min="12" max="12" width="12.5546875" customWidth="1"/>
-    <col min="13" max="13" width="11.33203125" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="74" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" style="6" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" customWidth="1"/>
+    <col min="13" max="13" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>269</v>
       </c>
@@ -8737,7 +8761,7 @@
       </c>
       <c r="N1" s="2"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>2</v>
       </c>
@@ -8778,7 +8802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>3</v>
       </c>
@@ -8819,7 +8843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>4</v>
       </c>
@@ -8860,7 +8884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>5</v>
       </c>
@@ -8901,7 +8925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>23</v>
       </c>
@@ -8942,7 +8966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43</v>
       </c>
@@ -8983,7 +9007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>35</v>
       </c>
@@ -9024,7 +9048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>41</v>
       </c>
@@ -9065,7 +9089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>48</v>
       </c>
@@ -9106,7 +9130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>56</v>
       </c>
@@ -9147,7 +9171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>66</v>
       </c>
@@ -9188,7 +9212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>85</v>
       </c>
@@ -9229,7 +9253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>89</v>
       </c>
@@ -9270,7 +9294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>90</v>
       </c>
@@ -9311,7 +9335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>81</v>
       </c>
@@ -9352,7 +9376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>104</v>
       </c>
@@ -9393,7 +9417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>105</v>
       </c>
@@ -9434,7 +9458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>107</v>
       </c>
@@ -9475,7 +9499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>109</v>
       </c>
@@ -9516,7 +9540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>110</v>
       </c>
@@ -9557,7 +9581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>112</v>
       </c>
@@ -9598,7 +9622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>113</v>
       </c>
@@ -9639,7 +9663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>115</v>
       </c>
@@ -9680,7 +9704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>117</v>
       </c>
@@ -9721,7 +9745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>118</v>
       </c>
@@ -9762,7 +9786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>119</v>
       </c>
@@ -9803,7 +9827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>123</v>
       </c>
@@ -9844,7 +9868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>131</v>
       </c>
@@ -9885,7 +9909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>132</v>
       </c>
@@ -9926,7 +9950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>134</v>
       </c>
@@ -9967,7 +9991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>136</v>
       </c>
@@ -10008,7 +10032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>137</v>
       </c>
@@ -10049,7 +10073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>138</v>
       </c>
@@ -10090,7 +10114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>139</v>
       </c>
@@ -10131,7 +10155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>140</v>
       </c>
@@ -10172,7 +10196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>144</v>
       </c>
@@ -10213,7 +10237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>145</v>
       </c>
@@ -10254,7 +10278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>143</v>
       </c>
@@ -10295,7 +10319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>141</v>
       </c>
@@ -10336,7 +10360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>142</v>
       </c>
@@ -10381,7 +10405,7 @@
         <v>2575.7987190644653</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>42</v>
       </c>
@@ -10422,7 +10446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>116</v>
       </c>
@@ -10463,7 +10487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>111</v>
       </c>
@@ -10504,7 +10528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>91</v>
       </c>
@@ -10545,7 +10569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>92</v>
       </c>
@@ -10586,7 +10610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>130</v>
       </c>
@@ -10627,7 +10651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>37</v>
       </c>
@@ -10668,7 +10692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>63</v>
       </c>
@@ -10709,7 +10733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -10750,7 +10774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>103</v>
       </c>
@@ -10791,7 +10815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>102</v>
       </c>
@@ -10832,7 +10856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>53</v>
       </c>
@@ -10873,7 +10897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>101</v>
       </c>
@@ -10914,7 +10938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>50</v>
       </c>
@@ -10955,7 +10979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>40</v>
       </c>
@@ -10996,7 +11020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>133</v>
       </c>
@@ -11037,7 +11061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>128</v>
       </c>
@@ -11078,7 +11102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>100</v>
       </c>
@@ -11119,7 +11143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>82</v>
       </c>
@@ -11160,7 +11184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>84</v>
       </c>
@@ -11201,7 +11225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>106</v>
       </c>
@@ -11242,7 +11266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>120</v>
       </c>
@@ -11283,7 +11307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>68</v>
       </c>
@@ -11324,7 +11348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>121</v>
       </c>
@@ -11365,7 +11389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -11406,7 +11430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>135</v>
       </c>
@@ -11447,7 +11471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>129</v>
       </c>
@@ -11488,7 +11512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>52</v>
       </c>
@@ -11529,7 +11553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>61</v>
       </c>
@@ -11570,7 +11594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>62</v>
       </c>
@@ -11611,7 +11635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>64</v>
       </c>
@@ -11652,7 +11676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>122</v>
       </c>
@@ -11693,7 +11717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>0</v>
       </c>
@@ -11734,7 +11758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>1</v>
       </c>
@@ -11775,7 +11799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>12</v>
       </c>
@@ -11816,7 +11840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>7</v>
       </c>
@@ -11857,7 +11881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>8</v>
       </c>
@@ -11898,7 +11922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>9</v>
       </c>
@@ -11939,7 +11963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>10</v>
       </c>
@@ -11980,7 +12004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>11</v>
       </c>
@@ -12021,7 +12045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>6</v>
       </c>
@@ -12062,7 +12086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>14</v>
       </c>
@@ -12103,7 +12127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>15</v>
       </c>
@@ -12144,7 +12168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>13</v>
       </c>
@@ -12185,7 +12209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>19</v>
       </c>
@@ -12226,7 +12250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>16</v>
       </c>
@@ -12267,7 +12291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>17</v>
       </c>
@@ -12308,7 +12332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>18</v>
       </c>
@@ -12349,7 +12373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>21</v>
       </c>
@@ -12390,7 +12414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>22</v>
       </c>
@@ -12431,7 +12455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>24</v>
       </c>
@@ -12472,7 +12496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>25</v>
       </c>
@@ -12513,7 +12537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>26</v>
       </c>
@@ -12554,7 +12578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>27</v>
       </c>
@@ -12595,7 +12619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>20</v>
       </c>
@@ -12636,7 +12660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>29</v>
       </c>
@@ -12677,7 +12701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>30</v>
       </c>
@@ -12718,7 +12742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>31</v>
       </c>
@@ -12759,7 +12783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>32</v>
       </c>
@@ -12800,7 +12824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>33</v>
       </c>
@@ -12841,7 +12865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>34</v>
       </c>
@@ -12882,7 +12906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>28</v>
       </c>
@@ -12923,7 +12947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>38</v>
       </c>
@@ -12964,7 +12988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>39</v>
       </c>
@@ -13005,7 +13029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>46</v>
       </c>
@@ -13046,7 +13070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>47</v>
       </c>
@@ -13087,7 +13111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>44</v>
       </c>
@@ -13128,7 +13152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>45</v>
       </c>
@@ -13169,7 +13193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>51</v>
       </c>
@@ -13210,7 +13234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>57</v>
       </c>
@@ -13251,7 +13275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>58</v>
       </c>
@@ -13292,7 +13316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>59</v>
       </c>
@@ -13333,7 +13357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>60</v>
       </c>
@@ -13374,7 +13398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>54</v>
       </c>
@@ -13415,7 +13439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>55</v>
       </c>
@@ -13456,7 +13480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>67</v>
       </c>
@@ -13497,7 +13521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>69</v>
       </c>
@@ -13538,7 +13562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>70</v>
       </c>
@@ -13579,7 +13603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>78</v>
       </c>
@@ -13620,7 +13644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>79</v>
       </c>
@@ -13661,7 +13685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>73</v>
       </c>
@@ -13702,7 +13726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>74</v>
       </c>
@@ -13743,7 +13767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>75</v>
       </c>
@@ -13784,7 +13808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>76</v>
       </c>
@@ -13825,7 +13849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>77</v>
       </c>
@@ -13866,7 +13890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>71</v>
       </c>
@@ -13907,7 +13931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>72</v>
       </c>
@@ -13948,7 +13972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>80</v>
       </c>
@@ -13989,7 +14013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>86</v>
       </c>
@@ -14030,7 +14054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>87</v>
       </c>
@@ -14071,7 +14095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>88</v>
       </c>
@@ -14112,7 +14136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>83</v>
       </c>
@@ -14153,7 +14177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>93</v>
       </c>
@@ -14194,7 +14218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>94</v>
       </c>
@@ -14235,7 +14259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>95</v>
       </c>
@@ -14276,7 +14300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>96</v>
       </c>
@@ -14317,7 +14341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>97</v>
       </c>
@@ -14358,7 +14382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>98</v>
       </c>
@@ -14399,7 +14423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>99</v>
       </c>
@@ -14440,7 +14464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>108</v>
       </c>
@@ -14481,7 +14505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>114</v>
       </c>
@@ -14522,7 +14546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>124</v>
       </c>
@@ -14563,7 +14587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>125</v>
       </c>
@@ -14604,7 +14628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>126</v>
       </c>
@@ -14645,7 +14669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>127</v>
       </c>
@@ -14686,7 +14710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>36</v>
       </c>
@@ -14744,9 +14768,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>270</v>
       </c>
@@ -14763,7 +14787,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -14783,7 +14807,7 @@
         <v>445.45</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -14803,7 +14827,7 @@
         <v>85.238235250000059</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -14823,7 +14847,7 @@
         <v>63.527500000000032</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -14843,7 +14867,7 @@
         <v>-4.1729274821100262</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -14863,7 +14887,7 @@
         <v>192.42728129899999</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -14883,7 +14907,7 @@
         <v>-62.561834990630018</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -14903,7 +14927,7 @@
         <v>247.27260185119999</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -14923,7 +14947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -14943,7 +14967,7 @@
         <v>3.51383592000002</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -14963,7 +14987,7 @@
         <v>426.20749999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -14983,7 +15007,7 @@
         <v>309.26</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -15003,7 +15027,7 @@
         <v>207.67344664161999</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -15023,7 +15047,7 @@
         <v>355.42999999999989</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -15043,7 +15067,7 @@
         <v>50.110000000000007</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -15063,7 +15087,7 @@
         <v>282.98</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -15083,7 +15107,7 @@
         <v>57.550000000000068</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -15103,7 +15127,7 @@
         <v>116.19570868000029</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -15123,7 +15147,7 @@
         <v>503.54089693000009</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -15143,7 +15167,7 @@
         <v>516.57598431683994</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -15163,7 +15187,7 @@
         <v>508.86228642999993</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -15183,7 +15207,7 @@
         <v>659.50489275000018</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -15203,7 +15227,7 @@
         <v>391.48141591784582</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -15223,7 +15247,7 @@
         <v>23.902248683624979</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -15243,7 +15267,7 @@
         <v>258.7762001492996</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -15263,7 +15287,7 @@
         <v>300.69815769268018</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -15283,7 +15307,7 @@
         <v>-501.12</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -15303,7 +15327,7 @@
         <v>894.68000000000006</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -15323,7 +15347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -15343,7 +15367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -15363,7 +15387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -15383,7 +15407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -15403,7 +15427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -15423,7 +15447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -15443,7 +15467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -15463,7 +15487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -15483,7 +15507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -15503,7 +15527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -15534,9 +15558,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -15559,7 +15583,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -15585,7 +15609,7 @@
         <v>354.62321493718002</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -15611,7 +15635,7 @@
         <v>44.79</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -15637,7 +15661,7 @@
         <v>-584.59646662500109</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -15663,7 +15687,7 @@
         <v>368.23859756116002</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -15689,7 +15713,7 @@
         <v>2676.5183464759202</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -15715,7 +15739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -15741,7 +15765,7 @@
         <v>1210.5533454048241</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -15767,7 +15791,7 @@
         <v>400.66</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -15793,7 +15817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -15819,7 +15843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -15845,7 +15869,7 @@
         <v>1498.180028008795</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -15871,7 +15895,7 @@
         <v>120.5563642764902</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -15897,7 +15921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -15923,7 +15947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -15962,16 +15986,16 @@
       <selection activeCell="J11" sqref="I11:J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.44140625" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" customWidth="1"/>
-    <col min="6" max="6" width="16.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>4</v>
       </c>
@@ -15988,7 +16012,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>0</v>
       </c>
@@ -16008,7 +16032,7 @@
         <v>354.62</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -16028,7 +16052,7 @@
         <v>44.79</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -16048,7 +16072,7 @@
         <v>2460.16</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -16068,7 +16092,7 @@
         <v>1210.55</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -16088,7 +16112,7 @@
         <v>400.66</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>5</v>
       </c>
@@ -16108,7 +16132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>6</v>
       </c>
@@ -16128,7 +16152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -16148,7 +16172,7 @@
         <v>1498.18</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>8</v>
       </c>
@@ -16168,7 +16192,7 @@
         <v>120.56</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>9</v>
       </c>
@@ -16188,7 +16212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>10</v>
       </c>
@@ -16208,7 +16232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>11</v>
       </c>
@@ -16228,7 +16252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="4"/>
       <c r="C14" s="4">
         <f>SUM(C2:C13)</f>
@@ -16250,4 +16274,830 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G39"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="52.85546875" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="6"/>
+    <col min="6" max="6" width="18.85546875" style="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="B2" s="8">
+        <v>8</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="E2" s="8">
+        <v>1.55</v>
+      </c>
+      <c r="F2" s="8">
+        <v>19.18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="B3" s="8">
+        <v>8</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="E3" s="8">
+        <v>5.625</v>
+      </c>
+      <c r="F3" s="8">
+        <v>309.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="B4" s="8">
+        <v>8</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="E4" s="8">
+        <v>1</v>
+      </c>
+      <c r="F4" s="8">
+        <v>45.95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="B5" s="8">
+        <v>2</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="E5" s="8">
+        <v>1</v>
+      </c>
+      <c r="F5" s="8">
+        <v>44.79</v>
+      </c>
+      <c r="G5">
+        <f>SUM(F2:F5)</f>
+        <v>419.72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>232</v>
+      </c>
+      <c r="B6" s="6">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D6" t="s">
+        <v>225</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0.58999999999999986</v>
+      </c>
+      <c r="F6" s="6">
+        <v>8.7692750109999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>234</v>
+      </c>
+      <c r="B7" s="6">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D7" t="s">
+        <v>225</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0</v>
+      </c>
+      <c r="F7" s="6">
+        <v>55.74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>236</v>
+      </c>
+      <c r="B8" s="6">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>132</v>
+      </c>
+      <c r="D8" t="s">
+        <v>226</v>
+      </c>
+      <c r="E8" s="6">
+        <v>1</v>
+      </c>
+      <c r="F8" s="6">
+        <v>137.35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>238</v>
+      </c>
+      <c r="B9" s="6">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>139</v>
+      </c>
+      <c r="D9" t="s">
+        <v>225</v>
+      </c>
+      <c r="E9" s="6">
+        <v>3.9</v>
+      </c>
+      <c r="F9" s="6">
+        <v>18.396996112979998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>241</v>
+      </c>
+      <c r="B10" s="6">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>149</v>
+      </c>
+      <c r="D10" t="s">
+        <v>226</v>
+      </c>
+      <c r="E10" s="6">
+        <v>1</v>
+      </c>
+      <c r="F10" s="6">
+        <v>166.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="B11" s="13">
+        <v>7</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="E11" s="13">
+        <v>4.28</v>
+      </c>
+      <c r="F11" s="13">
+        <v>101.201059</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="B12" s="13">
+        <v>7</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="E12" s="13">
+        <v>5.9850000000000003</v>
+      </c>
+      <c r="F12" s="13">
+        <v>141.51596699999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="B13" s="13">
+        <v>7</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="E13" s="13">
+        <v>7.91</v>
+      </c>
+      <c r="F13" s="13">
+        <v>187.0327983</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="B14" s="13">
+        <v>5</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="E14" s="13">
+        <v>1</v>
+      </c>
+      <c r="F14" s="13">
+        <v>159.86056307000001</v>
+      </c>
+      <c r="G14">
+        <f>SUM(F11:F14)</f>
+        <v>589.61038737000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="B15" s="8">
+        <v>12</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="E15" s="8">
+        <v>5</v>
+      </c>
+      <c r="F15" s="8">
+        <v>120.5563642764902</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="B16" s="8">
+        <v>11</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="E16" s="8">
+        <v>9.4939999999999998</v>
+      </c>
+      <c r="F16" s="8">
+        <v>329.10739257350991</v>
+      </c>
+      <c r="G16">
+        <f>SUM(F15:F16)</f>
+        <v>449.66375685000014</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>248</v>
+      </c>
+      <c r="B17" s="6">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>188</v>
+      </c>
+      <c r="D17" t="s">
+        <v>225</v>
+      </c>
+      <c r="E17" s="6">
+        <v>1</v>
+      </c>
+      <c r="F17" s="6">
+        <v>18.14921786</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>248</v>
+      </c>
+      <c r="B18" s="6">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>190</v>
+      </c>
+      <c r="D18" t="s">
+        <v>225</v>
+      </c>
+      <c r="E18" s="6">
+        <v>1</v>
+      </c>
+      <c r="F18" s="6">
+        <v>5.8813662830000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>248</v>
+      </c>
+      <c r="B19" s="6">
+        <v>7</v>
+      </c>
+      <c r="C19" t="s">
+        <v>191</v>
+      </c>
+      <c r="D19" t="s">
+        <v>225</v>
+      </c>
+      <c r="E19" s="6">
+        <v>0.58399999999999996</v>
+      </c>
+      <c r="F19" s="6">
+        <v>8.1389467849999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>248</v>
+      </c>
+      <c r="B20" s="6">
+        <v>7</v>
+      </c>
+      <c r="C20" t="s">
+        <v>193</v>
+      </c>
+      <c r="D20" t="s">
+        <v>225</v>
+      </c>
+      <c r="E20" s="6">
+        <v>1.4</v>
+      </c>
+      <c r="F20" s="6">
+        <v>11.9046562</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>248</v>
+      </c>
+      <c r="B21" s="6">
+        <v>7</v>
+      </c>
+      <c r="C21" t="s">
+        <v>194</v>
+      </c>
+      <c r="D21" t="s">
+        <v>225</v>
+      </c>
+      <c r="E21" s="6">
+        <v>1.9</v>
+      </c>
+      <c r="F21" s="6">
+        <v>2.4463474449999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>248</v>
+      </c>
+      <c r="B22" s="6">
+        <v>7</v>
+      </c>
+      <c r="C22" t="s">
+        <v>196</v>
+      </c>
+      <c r="D22" t="s">
+        <v>225</v>
+      </c>
+      <c r="E22" s="6">
+        <v>0.439</v>
+      </c>
+      <c r="F22" s="6">
+        <v>4.4591922139999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>248</v>
+      </c>
+      <c r="B23" s="6">
+        <v>4</v>
+      </c>
+      <c r="C23" t="s">
+        <v>198</v>
+      </c>
+      <c r="D23" t="s">
+        <v>226</v>
+      </c>
+      <c r="E23" s="6">
+        <v>1</v>
+      </c>
+      <c r="F23" s="6">
+        <v>36.661991779399997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>248</v>
+      </c>
+      <c r="B24" s="6">
+        <v>4</v>
+      </c>
+      <c r="C24" t="s">
+        <v>199</v>
+      </c>
+      <c r="D24" t="s">
+        <v>226</v>
+      </c>
+      <c r="E24" s="6">
+        <v>1</v>
+      </c>
+      <c r="F24" s="6">
+        <v>36.661991779399997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>248</v>
+      </c>
+      <c r="B25" s="6">
+        <v>4</v>
+      </c>
+      <c r="C25" t="s">
+        <v>200</v>
+      </c>
+      <c r="D25" t="s">
+        <v>226</v>
+      </c>
+      <c r="E25" s="6">
+        <v>1</v>
+      </c>
+      <c r="F25" s="6">
+        <v>36.661991779399997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>249</v>
+      </c>
+      <c r="B26" s="6">
+        <v>7</v>
+      </c>
+      <c r="C26" t="s">
+        <v>204</v>
+      </c>
+      <c r="D26" t="s">
+        <v>225</v>
+      </c>
+      <c r="E26" s="6">
+        <v>1.7749999999999999</v>
+      </c>
+      <c r="F26" s="6">
+        <v>28.577189027549998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="B27" s="13">
+        <v>5</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="E27" s="13">
+        <v>1</v>
+      </c>
+      <c r="F27" s="13">
+        <v>346.4138345175399</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="B28" s="13">
+        <v>5</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="E28" s="13">
+        <v>1</v>
+      </c>
+      <c r="F28" s="13">
+        <v>288.07948569393011</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="B29" s="13">
+        <v>4</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="E29" s="13">
+        <v>1</v>
+      </c>
+      <c r="F29" s="13">
+        <v>41.822123349999998</v>
+      </c>
+      <c r="G29">
+        <f>SUM(F27:F29)</f>
+        <v>676.31544356147003</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="B30" s="8">
+        <v>11</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="E30" s="8">
+        <v>0.54</v>
+      </c>
+      <c r="F30" s="8">
+        <v>22.7160982732</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="B31" s="8">
+        <v>7</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="E31" s="8">
+        <v>3.96</v>
+      </c>
+      <c r="F31" s="8">
+        <v>71.526410010000006</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="B32" s="8">
+        <v>7</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="E32" s="8">
+        <v>2.1</v>
+      </c>
+      <c r="F32" s="8">
+        <v>12.72235877</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="B33" s="8">
+        <v>7</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="E33" s="8">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="F33" s="8">
+        <v>16.387823999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="B34" s="8">
+        <v>7</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="E34" s="8">
+        <v>15.5</v>
+      </c>
+      <c r="F34" s="8">
+        <v>367.318307</v>
+      </c>
+      <c r="G34">
+        <f>SUM(F30:F34)</f>
+        <v>490.67099805320004</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="B35" s="13">
+        <v>5</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="E35" s="13">
+        <v>1</v>
+      </c>
+      <c r="F35" s="13">
+        <v>140.87</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="B36" s="13">
+        <v>5</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="E36" s="13">
+        <v>1</v>
+      </c>
+      <c r="F36" s="13">
+        <v>407.31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="B37" s="13">
+        <v>4</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="E37" s="13">
+        <v>1</v>
+      </c>
+      <c r="F37" s="13">
+        <v>41.88</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="B38" s="13">
+        <v>3</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="E38" s="13">
+        <v>1</v>
+      </c>
+      <c r="F38" s="13">
+        <v>156.62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="B39" s="13">
+        <v>3</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="E39" s="13">
+        <v>1</v>
+      </c>
+      <c r="F39" s="13">
+        <v>148</v>
+      </c>
+      <c r="G39">
+        <f>SUM(F35:F39)</f>
+        <v>894.68000000000006</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>